--- a/Platform/db/PM/import/水井信息(1).xlsx
+++ b/Platform/db/PM/import/水井信息(1).xlsx
@@ -1,15 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\linis\Documents\WeChat Files\linis_yes\Files\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28695" windowHeight="13065"/>
+    <workbookView windowWidth="28695" windowHeight="13050"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -19,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="296" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106">
   <si>
     <t>水井编号</t>
   </si>
@@ -342,11 +337,15 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <numFmts count="1">
-    <numFmt numFmtId="178" formatCode="0_);[Red]\(0\)"/>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="5">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="0_);[Red]\(0\)"/>
   </numFmts>
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="22">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -363,22 +362,158 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="9"/>
+      <b/>
+      <sz val="11"/>
       <name val="等线"/>
-      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="等线"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="11"/>
+      <sz val="18"/>
+      <color theme="3"/>
       <name val="等线"/>
-      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="35">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -397,8 +532,194 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -406,45 +727,331 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="4" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
   <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
+    <cellStyle name="输入" xfId="3" builtinId="20"/>
+    <cellStyle name="货币" xfId="4" builtinId="4"/>
+    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
+    <cellStyle name="差" xfId="7" builtinId="27"/>
+    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
+    <cellStyle name="超链接" xfId="10" builtinId="8"/>
+    <cellStyle name="百分比" xfId="11" builtinId="5"/>
+    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
+    <cellStyle name="注释" xfId="13" builtinId="10"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
+    <cellStyle name="标题" xfId="17" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
+    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
+    <cellStyle name="输出" xfId="24" builtinId="21"/>
+    <cellStyle name="计算" xfId="25" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
+    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
+    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
+    <cellStyle name="汇总" xfId="30" builtinId="25"/>
+    <cellStyle name="好" xfId="31" builtinId="26"/>
+    <cellStyle name="适中" xfId="32" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
+    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
+    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
+    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
+    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -702,290 +1309,287 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AE16"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:AD16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H1" sqref="H1"/>
+      <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
   <cols>
     <col min="1" max="1" width="23.375" style="1" customWidth="1"/>
     <col min="2" max="2" width="25.25" style="1" customWidth="1"/>
-    <col min="3" max="16384" width="9" style="1"/>
+    <col min="3" max="6" width="9" style="1"/>
+    <col min="7" max="7" width="20.125" style="1" customWidth="1"/>
+    <col min="8" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:31" ht="57" x14ac:dyDescent="0.2">
-      <c r="A1" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="5" t="s">
+    <row r="1" ht="57" spans="1:30">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="6" t="s">
+      <c r="C1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="6" t="s">
+      <c r="D1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="6" t="s">
+      <c r="E1" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="6" t="s">
+      <c r="F1" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="7" t="s">
+      <c r="G1" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="7" t="s">
+      <c r="H1" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="7" t="s">
+      <c r="I1" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="7" t="s">
+      <c r="J1" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="7" t="s">
+      <c r="K1" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="7" t="s">
+      <c r="L1" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="7" t="s">
+      <c r="M1" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="7" t="s">
+      <c r="N1" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="7" t="s">
+      <c r="O1" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="P1" s="7" t="s">
+      <c r="P1" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" s="7" t="s">
+      <c r="Q1" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="R1" s="7" t="s">
+      <c r="R1" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="S1" s="7" t="s">
+      <c r="S1" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="T1" s="7" t="s">
+      <c r="T1" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="U1" s="7" t="s">
+      <c r="U1" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="V1" s="7" t="s">
+      <c r="V1" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="W1" s="7" t="s">
+      <c r="W1" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="X1" s="7" t="s">
+      <c r="X1" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="Y1" s="7" t="s">
+      <c r="Y1" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="Z1" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="AA1" s="7" t="s">
+      <c r="Z1" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="AB1" s="7" t="s">
+      <c r="AA1" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="AC1" s="7" t="s">
+      <c r="AB1" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="AD1" s="5" t="s">
+      <c r="AC1" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="AE1" s="5" t="s">
+      <c r="AD1" s="2" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="2" spans="1:31" ht="57" x14ac:dyDescent="0.2">
-      <c r="A2" s="2">
+    <row r="2" ht="57" spans="1:30">
+      <c r="A2" s="5">
         <v>100002</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="C2" s="3">
+      <c r="C2" s="6">
         <v>100002</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="D2" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="E2" s="3" t="s">
+      <c r="E2" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="F2" s="3" t="s">
+      <c r="F2" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="G2" s="3" t="s">
+      <c r="G2" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="H2" s="3" t="s">
+      <c r="H2" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="I2" s="3"/>
-      <c r="J2" s="3">
+      <c r="I2" s="6"/>
+      <c r="J2" s="6">
         <v>1949</v>
       </c>
-      <c r="K2" s="3">
-        <v>0</v>
-      </c>
-      <c r="L2" s="3">
-        <v>0</v>
-      </c>
-      <c r="M2" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="N2" s="3">
-        <v>0</v>
-      </c>
-      <c r="O2" s="3" t="s">
+      <c r="K2" s="6">
+        <v>0</v>
+      </c>
+      <c r="L2" s="6">
+        <v>0</v>
+      </c>
+      <c r="M2" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="N2" s="6">
+        <v>0</v>
+      </c>
+      <c r="O2" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="P2" s="3"/>
-      <c r="Q2" s="3" t="s">
+      <c r="P2" s="6"/>
+      <c r="Q2" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="R2" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="S2" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="T2" s="3"/>
-      <c r="U2" s="3"/>
-      <c r="V2" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="W2" s="3" t="s">
+      <c r="R2" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="S2" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="T2" s="6"/>
+      <c r="U2" s="6"/>
+      <c r="V2" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="W2" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="X2" s="3" t="s">
+      <c r="X2" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="Y2" s="3" t="s">
+      <c r="Y2" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="Z2" s="3"/>
-      <c r="AA2" s="3" t="s">
+      <c r="Z2" s="6" t="s">
         <v>41</v>
       </c>
-      <c r="AB2" s="3"/>
-      <c r="AC2" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="AD2" s="3"/>
-      <c r="AE2" s="3">
+      <c r="AA2" s="6"/>
+      <c r="AB2" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="AC2" s="6"/>
+      <c r="AD2" s="6">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:31" ht="57" x14ac:dyDescent="0.2">
-      <c r="A3" s="2">
+    <row r="3" ht="57" spans="1:30">
+      <c r="A3" s="5">
         <v>110112000270</v>
       </c>
-      <c r="B3" s="3" t="s">
+      <c r="B3" s="6" t="s">
         <v>42</v>
       </c>
-      <c r="C3" s="3">
+      <c r="C3" s="6">
         <v>100042</v>
       </c>
-      <c r="D3" s="3" t="s">
+      <c r="D3" s="6" t="s">
         <v>43</v>
       </c>
-      <c r="E3" s="3" t="s">
+      <c r="E3" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="F3" s="3" t="s">
+      <c r="F3" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="G3" s="3" t="s">
+      <c r="G3" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="H3" s="3" t="s">
+      <c r="H3" s="6" t="s">
         <v>45</v>
       </c>
-      <c r="I3" s="3" t="s">
+      <c r="I3" s="6" t="s">
         <v>46</v>
       </c>
-      <c r="J3" s="3">
+      <c r="J3" s="6">
         <v>1980</v>
       </c>
-      <c r="K3" s="3">
+      <c r="K3" s="6">
         <v>150</v>
       </c>
-      <c r="L3" s="3">
+      <c r="L3" s="6">
         <v>30</v>
       </c>
-      <c r="M3" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="N3" s="3">
+      <c r="M3" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="N3" s="6">
         <v>300</v>
       </c>
-      <c r="O3" s="3" t="s">
+      <c r="O3" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="P3" s="3"/>
-      <c r="Q3" s="3" t="s">
+      <c r="P3" s="6"/>
+      <c r="Q3" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="R3" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="S3" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="T3" s="3" t="s">
+      <c r="R3" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="S3" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="T3" s="6" t="s">
         <v>47</v>
       </c>
-      <c r="U3" s="3" t="s">
+      <c r="U3" s="6" t="s">
         <v>48</v>
       </c>
-      <c r="V3" s="3" t="s">
+      <c r="V3" s="6" t="s">
         <v>49</v>
       </c>
-      <c r="W3" s="3" t="s">
+      <c r="W3" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="X3" s="3" t="s">
+      <c r="X3" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="Y3" s="3" t="s">
+      <c r="Y3" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="Z3" s="3"/>
-      <c r="AA3" s="3" t="s">
+      <c r="Z3" s="6" t="s">
         <v>50</v>
       </c>
-      <c r="AB3" s="3"/>
-      <c r="AC3" s="3" t="s">
+      <c r="AA3" s="6"/>
+      <c r="AB3" s="6" t="s">
         <v>49</v>
       </c>
-      <c r="AD3" s="3"/>
-      <c r="AE3" s="3">
+      <c r="AC3" s="6"/>
+      <c r="AD3" s="6">
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:31" x14ac:dyDescent="0.2">
-      <c r="A4" s="4">
+    <row r="4" spans="1:30">
+      <c r="A4" s="7">
         <v>110112000196</v>
       </c>
       <c r="B4" s="1" t="s">
@@ -1057,946 +1661,935 @@
       <c r="Y4" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="AA4" s="1" t="s">
+      <c r="Z4" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="AC4" s="1" t="s">
+      <c r="AB4" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="AE4" s="1">
+      <c r="AD4" s="1">
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:31" ht="85.5" x14ac:dyDescent="0.2">
-      <c r="A5" s="2">
+    <row r="5" ht="85.5" spans="1:30">
+      <c r="A5" s="5">
         <v>110112000028</v>
       </c>
-      <c r="B5" s="3" t="s">
+      <c r="B5" s="6" t="s">
         <v>68</v>
       </c>
-      <c r="C5" s="3">
+      <c r="C5" s="6">
         <v>100812</v>
       </c>
-      <c r="D5" s="3" t="s">
+      <c r="D5" s="6" t="s">
         <v>69</v>
       </c>
-      <c r="E5" s="3" t="s">
+      <c r="E5" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="F5" s="3" t="s">
+      <c r="F5" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="G5" s="3" t="s">
+      <c r="G5" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="H5" s="3" t="s">
+      <c r="H5" s="6" t="s">
         <v>70</v>
       </c>
-      <c r="I5" s="3" t="s">
+      <c r="I5" s="6" t="s">
         <v>71</v>
       </c>
-      <c r="J5" s="3">
+      <c r="J5" s="6">
         <v>1996</v>
       </c>
-      <c r="K5" s="3">
+      <c r="K5" s="6">
         <v>200</v>
       </c>
-      <c r="L5" s="3">
+      <c r="L5" s="6">
         <v>80</v>
       </c>
-      <c r="M5" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="N5" s="3">
+      <c r="M5" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="N5" s="6">
         <v>200</v>
       </c>
-      <c r="O5" s="3" t="s">
+      <c r="O5" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="P5" s="3"/>
-      <c r="Q5" s="3" t="s">
+      <c r="P5" s="6"/>
+      <c r="Q5" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="R5" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="S5" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="T5" s="3" t="s">
+      <c r="R5" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="S5" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="T5" s="6" t="s">
         <v>72</v>
       </c>
-      <c r="U5" s="3" t="s">
+      <c r="U5" s="6" t="s">
         <v>48</v>
       </c>
-      <c r="V5" s="3" t="s">
+      <c r="V5" s="6" t="s">
         <v>49</v>
       </c>
-      <c r="W5" s="3" t="s">
+      <c r="W5" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="X5" s="3" t="s">
+      <c r="X5" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="Y5" s="3" t="s">
+      <c r="Y5" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="Z5" s="3"/>
-      <c r="AA5" s="3" t="s">
+      <c r="Z5" s="6" t="s">
         <v>50</v>
       </c>
-      <c r="AB5" s="3"/>
-      <c r="AC5" s="3" t="s">
+      <c r="AA5" s="6"/>
+      <c r="AB5" s="6" t="s">
         <v>49</v>
       </c>
-      <c r="AD5" s="3"/>
-      <c r="AE5" s="3">
+      <c r="AC5" s="6"/>
+      <c r="AD5" s="6">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:31" ht="71.25" x14ac:dyDescent="0.2">
-      <c r="A6" s="2">
+    <row r="6" ht="71.25" spans="1:30">
+      <c r="A6" s="5">
         <v>100112</v>
       </c>
-      <c r="B6" s="3" t="s">
+      <c r="B6" s="6" t="s">
         <v>73</v>
       </c>
-      <c r="C6" s="3">
+      <c r="C6" s="6">
         <v>100112</v>
       </c>
-      <c r="D6" s="3" t="s">
+      <c r="D6" s="6" t="s">
         <v>73</v>
       </c>
-      <c r="E6" s="3" t="s">
+      <c r="E6" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="F6" s="3" t="s">
+      <c r="F6" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="G6" s="3" t="s">
+      <c r="G6" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="H6" s="3" t="s">
+      <c r="H6" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="I6" s="3"/>
-      <c r="J6" s="3">
+      <c r="I6" s="6"/>
+      <c r="J6" s="6">
         <v>1949</v>
       </c>
-      <c r="K6" s="3">
-        <v>0</v>
-      </c>
-      <c r="L6" s="3">
-        <v>0</v>
-      </c>
-      <c r="M6" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="N6" s="3">
-        <v>0</v>
-      </c>
-      <c r="O6" s="3" t="s">
+      <c r="K6" s="6">
+        <v>0</v>
+      </c>
+      <c r="L6" s="6">
+        <v>0</v>
+      </c>
+      <c r="M6" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="N6" s="6">
+        <v>0</v>
+      </c>
+      <c r="O6" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="P6" s="3"/>
-      <c r="Q6" s="3" t="s">
+      <c r="P6" s="6"/>
+      <c r="Q6" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="R6" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="S6" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="T6" s="3"/>
-      <c r="U6" s="3"/>
-      <c r="V6" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="W6" s="3" t="s">
+      <c r="R6" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="S6" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="T6" s="6"/>
+      <c r="U6" s="6"/>
+      <c r="V6" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="W6" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="X6" s="3" t="s">
+      <c r="X6" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="Y6" s="3" t="s">
+      <c r="Y6" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="Z6" s="3"/>
-      <c r="AA6" s="3" t="s">
+      <c r="Z6" s="6" t="s">
         <v>50</v>
       </c>
-      <c r="AB6" s="3"/>
-      <c r="AC6" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="AD6" s="3"/>
-      <c r="AE6" s="3">
+      <c r="AA6" s="6"/>
+      <c r="AB6" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="AC6" s="6"/>
+      <c r="AD6" s="6">
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:31" ht="57" x14ac:dyDescent="0.2">
-      <c r="A7" s="2">
+    <row r="7" ht="57" spans="1:30">
+      <c r="A7" s="5">
         <v>100019</v>
       </c>
-      <c r="B7" s="3" t="s">
+      <c r="B7" s="6" t="s">
         <v>74</v>
       </c>
-      <c r="C7" s="3">
+      <c r="C7" s="6">
         <v>100019</v>
       </c>
-      <c r="D7" s="3" t="s">
+      <c r="D7" s="6" t="s">
         <v>74</v>
       </c>
-      <c r="E7" s="3" t="s">
+      <c r="E7" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="F7" s="3" t="s">
+      <c r="F7" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="G7" s="3" t="s">
+      <c r="G7" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="H7" s="3" t="s">
+      <c r="H7" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="I7" s="3"/>
-      <c r="J7" s="3">
+      <c r="I7" s="6"/>
+      <c r="J7" s="6">
         <v>1949</v>
       </c>
-      <c r="K7" s="3">
-        <v>0</v>
-      </c>
-      <c r="L7" s="3">
-        <v>0</v>
-      </c>
-      <c r="M7" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="N7" s="3">
-        <v>0</v>
-      </c>
-      <c r="O7" s="3" t="s">
+      <c r="K7" s="6">
+        <v>0</v>
+      </c>
+      <c r="L7" s="6">
+        <v>0</v>
+      </c>
+      <c r="M7" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="N7" s="6">
+        <v>0</v>
+      </c>
+      <c r="O7" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="P7" s="3"/>
-      <c r="Q7" s="3" t="s">
+      <c r="P7" s="6"/>
+      <c r="Q7" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="R7" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="S7" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="T7" s="3"/>
-      <c r="U7" s="3"/>
-      <c r="V7" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="W7" s="3" t="s">
+      <c r="R7" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="S7" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="T7" s="6"/>
+      <c r="U7" s="6"/>
+      <c r="V7" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="W7" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="X7" s="3" t="s">
+      <c r="X7" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="Y7" s="3" t="s">
+      <c r="Y7" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="Z7" s="3"/>
-      <c r="AA7" s="3" t="s">
+      <c r="Z7" s="6" t="s">
         <v>50</v>
       </c>
-      <c r="AB7" s="3"/>
-      <c r="AC7" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="AD7" s="3"/>
-      <c r="AE7" s="3">
+      <c r="AA7" s="6"/>
+      <c r="AB7" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="AC7" s="6"/>
+      <c r="AD7" s="6">
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:31" ht="71.25" x14ac:dyDescent="0.2">
-      <c r="A8" s="2">
+    <row r="8" ht="71.25" spans="1:30">
+      <c r="A8" s="5">
         <v>110109000007</v>
       </c>
-      <c r="B8" s="3" t="s">
+      <c r="B8" s="6" t="s">
         <v>75</v>
       </c>
-      <c r="C8" s="3">
+      <c r="C8" s="6">
         <v>100046</v>
       </c>
-      <c r="D8" s="3" t="s">
+      <c r="D8" s="6" t="s">
         <v>76</v>
       </c>
-      <c r="E8" s="3" t="s">
+      <c r="E8" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="F8" s="3" t="s">
+      <c r="F8" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="G8" s="3" t="s">
+      <c r="G8" s="6" t="s">
         <v>77</v>
       </c>
-      <c r="H8" s="3" t="s">
+      <c r="H8" s="6" t="s">
         <v>78</v>
       </c>
-      <c r="I8" s="3" t="s">
+      <c r="I8" s="6" t="s">
         <v>79</v>
       </c>
-      <c r="J8" s="3">
+      <c r="J8" s="6">
         <v>1979</v>
       </c>
-      <c r="K8" s="3">
+      <c r="K8" s="6">
         <v>21</v>
       </c>
-      <c r="L8" s="3">
+      <c r="L8" s="6">
         <v>5</v>
       </c>
-      <c r="M8" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="N8" s="3">
+      <c r="M8" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="N8" s="6">
         <v>300</v>
       </c>
-      <c r="O8" s="3" t="s">
+      <c r="O8" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="P8" s="3"/>
-      <c r="Q8" s="3" t="s">
+      <c r="P8" s="6"/>
+      <c r="Q8" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="R8" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="S8" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="T8" s="3" t="s">
+      <c r="R8" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="S8" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="T8" s="6" t="s">
         <v>80</v>
       </c>
-      <c r="U8" s="3" t="s">
+      <c r="U8" s="6" t="s">
         <v>48</v>
       </c>
-      <c r="V8" s="3" t="s">
+      <c r="V8" s="6" t="s">
         <v>49</v>
       </c>
-      <c r="W8" s="3" t="s">
+      <c r="W8" s="6" t="s">
         <v>81</v>
       </c>
-      <c r="X8" s="3" t="s">
+      <c r="X8" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="Y8" s="3" t="s">
+      <c r="Y8" s="6" t="s">
         <v>82</v>
       </c>
-      <c r="Z8" s="3"/>
-      <c r="AA8" s="3" t="s">
+      <c r="Z8" s="6" t="s">
         <v>50</v>
       </c>
-      <c r="AB8" s="3"/>
-      <c r="AC8" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="AD8" s="3" t="s">
+      <c r="AA8" s="6"/>
+      <c r="AB8" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="AC8" s="6" t="s">
         <v>83</v>
       </c>
-      <c r="AE8" s="3">
+      <c r="AD8" s="6">
         <v>10</v>
       </c>
     </row>
-    <row r="9" spans="1:31" x14ac:dyDescent="0.2">
-      <c r="A9" s="2"/>
+    <row r="9" spans="1:1">
+      <c r="A9" s="5"/>
     </row>
-    <row r="10" spans="1:31" ht="71.25" x14ac:dyDescent="0.2">
-      <c r="A10" s="2">
+    <row r="10" ht="71.25" spans="1:30">
+      <c r="A10" s="5">
         <v>110109000006</v>
       </c>
-      <c r="B10" s="3" t="s">
+      <c r="B10" s="6" t="s">
         <v>84</v>
       </c>
-      <c r="C10" s="3">
+      <c r="C10" s="6">
         <v>100046</v>
       </c>
-      <c r="D10" s="3" t="s">
+      <c r="D10" s="6" t="s">
         <v>76</v>
       </c>
-      <c r="E10" s="3" t="s">
+      <c r="E10" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="F10" s="3" t="s">
+      <c r="F10" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="G10" s="3" t="s">
+      <c r="G10" s="6" t="s">
         <v>77</v>
       </c>
-      <c r="H10" s="3" t="s">
+      <c r="H10" s="6" t="s">
         <v>78</v>
       </c>
-      <c r="I10" s="3" t="s">
+      <c r="I10" s="6" t="s">
         <v>85</v>
       </c>
-      <c r="J10" s="3">
+      <c r="J10" s="6">
         <v>1979</v>
       </c>
-      <c r="K10" s="3">
+      <c r="K10" s="6">
         <v>22.1</v>
       </c>
-      <c r="L10" s="3">
+      <c r="L10" s="6">
         <v>19</v>
       </c>
-      <c r="M10" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="N10" s="3">
+      <c r="M10" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="N10" s="6">
         <v>300</v>
       </c>
-      <c r="O10" s="3" t="s">
+      <c r="O10" s="6" t="s">
         <v>86</v>
       </c>
-      <c r="P10" s="3"/>
-      <c r="Q10" s="3" t="s">
+      <c r="P10" s="6"/>
+      <c r="Q10" s="6" t="s">
         <v>87</v>
       </c>
-      <c r="R10" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="S10" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="T10" s="3" t="s">
+      <c r="R10" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="S10" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="T10" s="6" t="s">
         <v>80</v>
       </c>
-      <c r="U10" s="3" t="s">
+      <c r="U10" s="6" t="s">
         <v>48</v>
       </c>
-      <c r="V10" s="3" t="s">
+      <c r="V10" s="6" t="s">
         <v>49</v>
       </c>
-      <c r="W10" s="3" t="s">
+      <c r="W10" s="6" t="s">
         <v>81</v>
       </c>
-      <c r="X10" s="3" t="s">
+      <c r="X10" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="Y10" s="3" t="s">
+      <c r="Y10" s="6" t="s">
         <v>82</v>
       </c>
-      <c r="Z10" s="3"/>
-      <c r="AA10" s="3" t="s">
+      <c r="Z10" s="6" t="s">
         <v>50</v>
       </c>
-      <c r="AB10" s="3"/>
-      <c r="AC10" s="3" t="s">
+      <c r="AA10" s="6"/>
+      <c r="AB10" s="6" t="s">
         <v>49</v>
       </c>
-      <c r="AD10" s="3"/>
-      <c r="AE10" s="3">
+      <c r="AC10" s="6"/>
+      <c r="AD10" s="6">
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:31" ht="57" x14ac:dyDescent="0.2">
-      <c r="A11" s="2">
+    <row r="11" ht="57" spans="1:30">
+      <c r="A11" s="5">
         <v>110112000065</v>
       </c>
-      <c r="B11" s="3" t="s">
+      <c r="B11" s="6" t="s">
         <v>88</v>
       </c>
-      <c r="C11" s="3">
+      <c r="C11" s="6">
         <v>100054</v>
       </c>
-      <c r="D11" s="3" t="s">
+      <c r="D11" s="6" t="s">
         <v>89</v>
       </c>
-      <c r="E11" s="3" t="s">
+      <c r="E11" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="F11" s="3" t="s">
+      <c r="F11" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="G11" s="3" t="s">
+      <c r="G11" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="H11" s="3" t="s">
+      <c r="H11" s="6" t="s">
         <v>90</v>
       </c>
-      <c r="I11" s="3" t="s">
+      <c r="I11" s="6" t="s">
         <v>91</v>
       </c>
-      <c r="J11" s="3">
+      <c r="J11" s="6">
         <v>2000</v>
       </c>
-      <c r="K11" s="3">
+      <c r="K11" s="6">
         <v>200</v>
       </c>
-      <c r="L11" s="3">
+      <c r="L11" s="6">
         <v>80</v>
       </c>
-      <c r="M11" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="N11" s="3">
+      <c r="M11" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="N11" s="6">
         <v>300</v>
       </c>
-      <c r="O11" s="3" t="s">
+      <c r="O11" s="6" t="s">
         <v>92</v>
       </c>
-      <c r="P11" s="3"/>
-      <c r="Q11" s="3" t="s">
+      <c r="P11" s="6"/>
+      <c r="Q11" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="R11" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="S11" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="T11" s="3" t="s">
+      <c r="R11" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="S11" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="T11" s="6" t="s">
         <v>93</v>
       </c>
-      <c r="U11" s="3" t="s">
+      <c r="U11" s="6" t="s">
         <v>48</v>
       </c>
-      <c r="V11" s="3" t="s">
+      <c r="V11" s="6" t="s">
         <v>49</v>
       </c>
-      <c r="W11" s="3" t="s">
+      <c r="W11" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="X11" s="3" t="s">
+      <c r="X11" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="Y11" s="3" t="s">
+      <c r="Y11" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="Z11" s="3"/>
-      <c r="AA11" s="3" t="s">
+      <c r="Z11" s="6" t="s">
         <v>50</v>
       </c>
-      <c r="AB11" s="3"/>
-      <c r="AC11" s="3" t="s">
+      <c r="AA11" s="6"/>
+      <c r="AB11" s="6" t="s">
         <v>49</v>
       </c>
-      <c r="AD11" s="3"/>
-      <c r="AE11" s="3">
+      <c r="AC11" s="6"/>
+      <c r="AD11" s="6">
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:31" ht="57" x14ac:dyDescent="0.2">
-      <c r="A12" s="2">
+    <row r="12" ht="57" spans="1:30">
+      <c r="A12" s="5">
         <v>170091</v>
       </c>
-      <c r="B12" s="3" t="s">
+      <c r="B12" s="6" t="s">
         <v>94</v>
       </c>
-      <c r="C12" s="3">
+      <c r="C12" s="6">
         <v>170091</v>
       </c>
-      <c r="D12" s="3" t="s">
+      <c r="D12" s="6" t="s">
         <v>94</v>
       </c>
-      <c r="E12" s="3" t="s">
+      <c r="E12" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="F12" s="3" t="s">
+      <c r="F12" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="G12" s="3" t="s">
+      <c r="G12" s="6" t="s">
         <v>95</v>
       </c>
-      <c r="H12" s="3" t="s">
+      <c r="H12" s="6" t="s">
         <v>96</v>
       </c>
-      <c r="I12" s="3"/>
-      <c r="J12" s="3">
+      <c r="I12" s="6"/>
+      <c r="J12" s="6">
         <v>1949</v>
       </c>
-      <c r="K12" s="3">
-        <v>0</v>
-      </c>
-      <c r="L12" s="3">
-        <v>0</v>
-      </c>
-      <c r="M12" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="N12" s="3">
-        <v>0</v>
-      </c>
-      <c r="O12" s="3" t="s">
+      <c r="K12" s="6">
+        <v>0</v>
+      </c>
+      <c r="L12" s="6">
+        <v>0</v>
+      </c>
+      <c r="M12" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="N12" s="6">
+        <v>0</v>
+      </c>
+      <c r="O12" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="P12" s="3"/>
-      <c r="Q12" s="3" t="s">
+      <c r="P12" s="6"/>
+      <c r="Q12" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="R12" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="S12" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="T12" s="3"/>
-      <c r="U12" s="3"/>
-      <c r="V12" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="W12" s="3" t="s">
+      <c r="R12" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="S12" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="T12" s="6"/>
+      <c r="U12" s="6"/>
+      <c r="V12" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="W12" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="X12" s="3" t="s">
+      <c r="X12" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="Y12" s="3" t="s">
+      <c r="Y12" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="Z12" s="3"/>
-      <c r="AA12" s="3" t="s">
+      <c r="Z12" s="6" t="s">
         <v>50</v>
       </c>
-      <c r="AB12" s="3"/>
-      <c r="AC12" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="AD12" s="3"/>
-      <c r="AE12" s="3">
+      <c r="AA12" s="6"/>
+      <c r="AB12" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="AC12" s="6"/>
+      <c r="AD12" s="6">
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:31" ht="42.75" x14ac:dyDescent="0.2">
-      <c r="A13" s="2" t="s">
+    <row r="13" ht="42.75" spans="1:30">
+      <c r="A13" s="5" t="s">
         <v>97</v>
       </c>
-      <c r="B13" s="3"/>
-      <c r="C13" s="3">
+      <c r="B13" s="6"/>
+      <c r="C13" s="6">
         <v>310000</v>
       </c>
-      <c r="D13" s="3" t="s">
+      <c r="D13" s="6" t="s">
         <v>98</v>
       </c>
-      <c r="E13" s="3" t="s">
+      <c r="E13" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="F13" s="3" t="s">
+      <c r="F13" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="G13" s="3" t="s">
+      <c r="G13" s="6" t="s">
         <v>99</v>
       </c>
-      <c r="H13" s="3" t="s">
+      <c r="H13" s="6" t="s">
         <v>100</v>
       </c>
-      <c r="I13" s="3"/>
-      <c r="J13" s="3">
+      <c r="I13" s="6"/>
+      <c r="J13" s="6">
         <v>1949</v>
       </c>
-      <c r="K13" s="3">
-        <v>0</v>
-      </c>
-      <c r="L13" s="3">
-        <v>0</v>
-      </c>
-      <c r="M13" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="N13" s="3">
-        <v>0</v>
-      </c>
-      <c r="O13" s="3" t="s">
+      <c r="K13" s="6">
+        <v>0</v>
+      </c>
+      <c r="L13" s="6">
+        <v>0</v>
+      </c>
+      <c r="M13" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="N13" s="6">
+        <v>0</v>
+      </c>
+      <c r="O13" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="P13" s="3" t="s">
+      <c r="P13" s="6" t="s">
         <v>101</v>
       </c>
-      <c r="Q13" s="3" t="s">
+      <c r="Q13" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="R13" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="S13" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="T13" s="3"/>
-      <c r="U13" s="3"/>
-      <c r="V13" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="W13" s="3" t="s">
+      <c r="R13" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="S13" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="T13" s="6"/>
+      <c r="U13" s="6"/>
+      <c r="V13" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="W13" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="X13" s="3" t="s">
+      <c r="X13" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="Y13" s="3" t="s">
+      <c r="Y13" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="Z13" s="3"/>
-      <c r="AA13" s="3" t="s">
+      <c r="Z13" s="6" t="s">
         <v>50</v>
       </c>
-      <c r="AB13" s="3" t="s">
+      <c r="AA13" s="6" t="s">
         <v>102</v>
       </c>
-      <c r="AC13" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="AD13" s="3"/>
-      <c r="AE13" s="3">
+      <c r="AB13" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="AC13" s="6"/>
+      <c r="AD13" s="6">
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:31" ht="42.75" x14ac:dyDescent="0.2">
-      <c r="A14" s="2" t="s">
+    <row r="14" ht="42.75" spans="1:30">
+      <c r="A14" s="5" t="s">
         <v>103</v>
       </c>
-      <c r="B14" s="3"/>
-      <c r="C14" s="3">
+      <c r="B14" s="6"/>
+      <c r="C14" s="6">
         <v>310000</v>
       </c>
-      <c r="D14" s="3" t="s">
+      <c r="D14" s="6" t="s">
         <v>98</v>
       </c>
-      <c r="E14" s="3" t="s">
+      <c r="E14" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="F14" s="3" t="s">
+      <c r="F14" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="G14" s="3" t="s">
+      <c r="G14" s="6" t="s">
         <v>99</v>
       </c>
-      <c r="H14" s="3" t="s">
+      <c r="H14" s="6" t="s">
         <v>100</v>
       </c>
-      <c r="I14" s="3"/>
-      <c r="J14" s="3">
+      <c r="I14" s="6"/>
+      <c r="J14" s="6">
         <v>1949</v>
       </c>
-      <c r="K14" s="3">
-        <v>0</v>
-      </c>
-      <c r="L14" s="3">
-        <v>0</v>
-      </c>
-      <c r="M14" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="N14" s="3">
-        <v>0</v>
-      </c>
-      <c r="O14" s="3" t="s">
+      <c r="K14" s="6">
+        <v>0</v>
+      </c>
+      <c r="L14" s="6">
+        <v>0</v>
+      </c>
+      <c r="M14" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="N14" s="6">
+        <v>0</v>
+      </c>
+      <c r="O14" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="P14" s="3" t="s">
+      <c r="P14" s="6" t="s">
         <v>101</v>
       </c>
-      <c r="Q14" s="3" t="s">
+      <c r="Q14" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="R14" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="S14" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="T14" s="3"/>
-      <c r="U14" s="3"/>
-      <c r="V14" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="W14" s="3" t="s">
+      <c r="R14" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="S14" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="T14" s="6"/>
+      <c r="U14" s="6"/>
+      <c r="V14" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="W14" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="X14" s="3" t="s">
+      <c r="X14" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="Y14" s="3" t="s">
+      <c r="Y14" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="Z14" s="3"/>
-      <c r="AA14" s="3" t="s">
+      <c r="Z14" s="6" t="s">
         <v>50</v>
       </c>
-      <c r="AB14" s="3" t="s">
+      <c r="AA14" s="6" t="s">
         <v>102</v>
       </c>
-      <c r="AC14" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="AD14" s="3"/>
-      <c r="AE14" s="3">
+      <c r="AB14" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="AC14" s="6"/>
+      <c r="AD14" s="6">
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:31" ht="42.75" x14ac:dyDescent="0.2">
-      <c r="A15" s="2" t="s">
+    <row r="15" ht="42.75" spans="1:30">
+      <c r="A15" s="5" t="s">
         <v>104</v>
       </c>
-      <c r="B15" s="3"/>
-      <c r="C15" s="3">
+      <c r="B15" s="6"/>
+      <c r="C15" s="6">
         <v>310000</v>
       </c>
-      <c r="D15" s="3" t="s">
+      <c r="D15" s="6" t="s">
         <v>98</v>
       </c>
-      <c r="E15" s="3" t="s">
+      <c r="E15" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="F15" s="3" t="s">
+      <c r="F15" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="G15" s="3" t="s">
+      <c r="G15" s="6" t="s">
         <v>99</v>
       </c>
-      <c r="H15" s="3" t="s">
+      <c r="H15" s="6" t="s">
         <v>100</v>
       </c>
-      <c r="I15" s="3"/>
-      <c r="J15" s="3">
+      <c r="I15" s="6"/>
+      <c r="J15" s="6">
         <v>1949</v>
       </c>
-      <c r="K15" s="3">
-        <v>0</v>
-      </c>
-      <c r="L15" s="3">
-        <v>0</v>
-      </c>
-      <c r="M15" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="N15" s="3">
-        <v>0</v>
-      </c>
-      <c r="O15" s="3" t="s">
+      <c r="K15" s="6">
+        <v>0</v>
+      </c>
+      <c r="L15" s="6">
+        <v>0</v>
+      </c>
+      <c r="M15" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="N15" s="6">
+        <v>0</v>
+      </c>
+      <c r="O15" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="P15" s="3" t="s">
+      <c r="P15" s="6" t="s">
         <v>101</v>
       </c>
-      <c r="Q15" s="3" t="s">
+      <c r="Q15" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="R15" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="S15" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="T15" s="3"/>
-      <c r="U15" s="3"/>
-      <c r="V15" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="W15" s="3" t="s">
+      <c r="R15" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="S15" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="T15" s="6"/>
+      <c r="U15" s="6"/>
+      <c r="V15" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="W15" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="X15" s="3" t="s">
+      <c r="X15" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="Y15" s="3" t="s">
+      <c r="Y15" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="Z15" s="3"/>
-      <c r="AA15" s="3" t="s">
+      <c r="Z15" s="6" t="s">
         <v>50</v>
       </c>
-      <c r="AB15" s="3" t="s">
+      <c r="AA15" s="6" t="s">
         <v>102</v>
       </c>
-      <c r="AC15" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="AD15" s="3"/>
-      <c r="AE15" s="3">
+      <c r="AB15" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="AC15" s="6"/>
+      <c r="AD15" s="6">
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:31" ht="42.75" x14ac:dyDescent="0.2">
-      <c r="A16" s="2" t="s">
+    <row r="16" ht="42.75" spans="1:30">
+      <c r="A16" s="5" t="s">
         <v>105</v>
       </c>
-      <c r="B16" s="3"/>
-      <c r="C16" s="3">
+      <c r="B16" s="6"/>
+      <c r="C16" s="6">
         <v>310000</v>
       </c>
-      <c r="D16" s="3" t="s">
+      <c r="D16" s="6" t="s">
         <v>98</v>
       </c>
-      <c r="E16" s="3" t="s">
+      <c r="E16" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="F16" s="3" t="s">
+      <c r="F16" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="G16" s="3" t="s">
+      <c r="G16" s="6" t="s">
         <v>99</v>
       </c>
-      <c r="H16" s="3" t="s">
+      <c r="H16" s="6" t="s">
         <v>100</v>
       </c>
-      <c r="I16" s="3"/>
-      <c r="J16" s="3">
+      <c r="I16" s="6"/>
+      <c r="J16" s="6">
         <v>1949</v>
       </c>
-      <c r="K16" s="3">
-        <v>0</v>
-      </c>
-      <c r="L16" s="3">
-        <v>0</v>
-      </c>
-      <c r="M16" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="N16" s="3">
-        <v>0</v>
-      </c>
-      <c r="O16" s="3" t="s">
+      <c r="K16" s="6">
+        <v>0</v>
+      </c>
+      <c r="L16" s="6">
+        <v>0</v>
+      </c>
+      <c r="M16" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="N16" s="6">
+        <v>0</v>
+      </c>
+      <c r="O16" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="P16" s="3" t="s">
+      <c r="P16" s="6" t="s">
         <v>101</v>
       </c>
-      <c r="Q16" s="3" t="s">
+      <c r="Q16" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="R16" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="S16" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="T16" s="3"/>
-      <c r="U16" s="3"/>
-      <c r="V16" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="W16" s="3" t="s">
+      <c r="R16" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="S16" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="T16" s="6"/>
+      <c r="U16" s="6"/>
+      <c r="V16" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="W16" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="X16" s="3" t="s">
+      <c r="X16" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="Y16" s="3" t="s">
+      <c r="Y16" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="Z16" s="3"/>
-      <c r="AA16" s="3" t="s">
+      <c r="Z16" s="6" t="s">
         <v>50</v>
       </c>
-      <c r="AB16" s="3" t="s">
+      <c r="AA16" s="6" t="s">
         <v>102</v>
       </c>
-      <c r="AC16" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="AD16" s="3"/>
-      <c r="AE16" s="3">
+      <c r="AB16" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="AC16" s="6"/>
+      <c r="AD16" s="6">
         <v>0</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="2" type="noConversion"/>
-  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
 </worksheet>
 </file>